--- a/refs/heads/main/StructureDefinition-svc-patient.xlsx
+++ b/refs/heads/main/StructureDefinition-svc-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="445">
   <si>
     <t>Path</t>
   </si>
@@ -391,7 +391,7 @@
     <t>PID-3</t>
   </si>
   <si>
-    <t>Identifier_URN</t>
+    <t>SVC_Identifier</t>
   </si>
   <si>
     <t>Patient.identifier.id</t>
@@ -502,9 +502,6 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:uuid</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -1565,7 +1562,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.9140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3438,7 +3435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>151</v>
       </c>
@@ -3454,7 +3451,7 @@
         <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>45</v>
@@ -3485,46 +3482,46 @@
         <v>45</v>
       </c>
       <c r="R17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S17" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="S17" t="s" s="2">
+      <c r="T17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3539,24 +3536,24 @@
         <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3570,7 +3567,7 @@
         <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>45</v>
@@ -3582,13 +3579,13 @@
         <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3602,43 +3599,43 @@
         <v>45</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3653,16 +3650,16 @@
         <v>63</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3670,7 +3667,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3693,13 +3690,13 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3750,7 +3747,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3765,16 +3762,16 @@
         <v>63</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3782,7 +3779,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3805,16 +3802,16 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3864,7 +3861,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3879,16 +3876,16 @@
         <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -3896,7 +3893,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3919,26 +3916,26 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="Q21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3982,7 +3979,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3997,13 +3994,13 @@
         <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>45</v>
@@ -4014,7 +4011,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4037,19 +4034,19 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4098,7 +4095,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4110,19 +4107,19 @@
         <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4130,7 +4127,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4242,7 +4239,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4356,7 +4353,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4382,16 +4379,16 @@
         <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4419,28 +4416,28 @@
         <v>135</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4455,16 +4452,16 @@
         <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4472,7 +4469,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4498,16 +4495,16 @@
         <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4556,7 +4553,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4571,16 +4568,16 @@
         <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4588,11 +4585,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4614,13 +4611,13 @@
         <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4670,7 +4667,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4685,16 +4682,16 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4702,11 +4699,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4728,13 +4725,13 @@
         <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4784,7 +4781,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4799,16 +4796,16 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4816,7 +4813,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4842,10 +4839,10 @@
         <v>53</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4896,7 +4893,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4911,16 +4908,16 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -4928,7 +4925,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4954,10 +4951,10 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5008,7 +5005,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5023,16 +5020,16 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5040,7 +5037,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5063,17 +5060,17 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5122,7 +5119,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5137,16 +5134,16 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5154,7 +5151,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5177,19 +5174,19 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5238,7 +5235,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5253,16 +5250,16 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5270,7 +5267,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5296,16 +5293,16 @@
         <v>71</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5333,11 +5330,11 @@
         <v>135</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5354,7 +5351,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5369,16 +5366,16 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5386,7 +5383,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5409,19 +5406,19 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5470,7 +5467,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5485,24 +5482,24 @@
         <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5525,19 +5522,19 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5586,7 +5583,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5601,7 +5598,7 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>124</v>
@@ -5610,7 +5607,7 @@
         <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5618,7 +5615,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5641,19 +5638,19 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5702,7 +5699,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5714,19 +5711,19 @@
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5734,7 +5731,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5760,14 +5757,14 @@
         <v>141</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5795,11 +5792,11 @@
         <v>146</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5816,7 +5813,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5831,16 +5828,16 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5848,7 +5845,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5871,19 +5868,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5932,7 +5929,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5947,7 +5944,7 @@
         <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>124</v>
@@ -5956,7 +5953,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5964,7 +5961,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5987,19 +5984,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6048,7 +6045,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6063,7 +6060,7 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>124</v>
@@ -6072,7 +6069,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6080,7 +6077,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6103,19 +6100,19 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6164,7 +6161,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6176,10 +6173,10 @@
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>124</v>
@@ -6196,7 +6193,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6308,7 +6305,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6422,11 +6419,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6448,10 +6445,10 @@
         <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>100</v>
@@ -6506,7 +6503,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6538,7 +6535,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6561,19 +6558,19 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6602,7 +6599,7 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6620,7 +6617,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6629,22 +6626,22 @@
         <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6652,7 +6649,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6675,17 +6672,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6734,7 +6731,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6749,7 +6746,7 @@
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>124</v>
@@ -6758,7 +6755,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6766,7 +6763,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6789,19 +6786,19 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="N46" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -6850,7 +6847,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6865,7 +6862,7 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>124</v>
@@ -6874,7 +6871,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6882,7 +6879,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6905,17 +6902,17 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6964,7 +6961,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6979,7 +6976,7 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>124</v>
@@ -6988,7 +6985,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -6996,7 +6993,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7022,14 +7019,14 @@
         <v>71</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7057,11 +7054,11 @@
         <v>135</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7078,7 +7075,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7093,7 +7090,7 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>124</v>
@@ -7102,7 +7099,7 @@
         <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7110,7 +7107,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7133,17 +7130,17 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7192,7 +7189,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7201,13 +7198,13 @@
         <v>52</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>124</v>
@@ -7216,7 +7213,7 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7224,7 +7221,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7247,13 +7244,13 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7304,7 +7301,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7319,7 +7316,7 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>124</v>
@@ -7336,7 +7333,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7359,19 +7356,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7420,7 +7417,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7435,10 +7432,10 @@
         <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>45</v>
@@ -7452,7 +7449,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7564,7 +7561,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7678,11 +7675,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7704,10 +7701,10 @@
         <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>100</v>
@@ -7762,7 +7759,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7794,7 +7791,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7820,16 +7817,16 @@
         <v>141</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -7858,7 +7855,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -7876,7 +7873,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>52</v>
@@ -7891,16 +7888,16 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -7908,7 +7905,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7931,19 +7928,19 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -7992,7 +7989,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8007,16 +8004,16 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8024,11 +8021,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8047,16 +8044,16 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8106,7 +8103,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8121,7 +8118,7 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>124</v>
@@ -8130,7 +8127,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8138,7 +8135,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8161,19 +8158,19 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8222,7 +8219,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8237,10 +8234,10 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>45</v>
@@ -8254,7 +8251,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8277,19 +8274,19 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8338,7 +8335,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8353,7 +8350,7 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>124</v>
@@ -8370,7 +8367,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8482,7 +8479,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8596,11 +8593,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8622,10 +8619,10 @@
         <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>100</v>
@@ -8680,7 +8677,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8712,7 +8709,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8735,16 +8732,16 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8794,7 +8791,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>52</v>
@@ -8818,7 +8815,7 @@
         <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -8826,7 +8823,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8852,10 +8849,10 @@
         <v>71</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8885,11 +8882,11 @@
         <v>135</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
       </c>
@@ -8906,7 +8903,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>52</v>
@@ -8921,7 +8918,7 @@
         <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>124</v>

--- a/refs/heads/main/StructureDefinition-svc-patient.xlsx
+++ b/refs/heads/main/StructureDefinition-svc-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="446">
   <si>
     <t>Path</t>
   </si>
@@ -565,7 +565,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization)
 </t>
   </si>
   <si>
@@ -1183,6 +1183,10 @@
   </si>
   <si>
     <t>Patient.contact.organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Organization that is associated with the contact</t>
@@ -7130,17 +7134,17 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7198,13 +7202,13 @@
         <v>52</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>124</v>
@@ -7213,7 +7217,7 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7221,7 +7225,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7247,10 +7251,10 @@
         <v>169</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7301,7 +7305,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7316,7 +7320,7 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>124</v>
@@ -7333,7 +7337,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7359,16 +7363,16 @@
         <v>330</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7417,7 +7421,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7432,10 +7436,10 @@
         <v>63</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>45</v>
@@ -7449,7 +7453,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7561,7 +7565,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7675,7 +7679,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7791,7 +7795,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7817,16 +7821,16 @@
         <v>141</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -7855,7 +7859,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -7873,7 +7877,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>52</v>
@@ -7888,16 +7892,16 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -7905,7 +7909,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7931,16 +7935,16 @@
         <v>184</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -7989,7 +7993,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8004,16 +8008,16 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8021,11 +8025,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8044,16 +8048,16 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8103,7 +8107,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8118,7 +8122,7 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>124</v>
@@ -8127,7 +8131,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8135,7 +8139,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8158,19 +8162,19 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8219,7 +8223,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8234,10 +8238,10 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>45</v>
@@ -8251,7 +8255,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8277,16 +8281,16 @@
         <v>330</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8335,7 +8339,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8350,7 +8354,7 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>124</v>
@@ -8367,7 +8371,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8479,7 +8483,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8593,7 +8597,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8709,7 +8713,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8732,16 +8736,16 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8791,7 +8795,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>52</v>
@@ -8815,7 +8819,7 @@
         <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -8823,7 +8827,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8849,10 +8853,10 @@
         <v>71</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8882,10 +8886,10 @@
         <v>135</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -8903,7 +8907,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>52</v>
@@ -8918,7 +8922,7 @@
         <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>124</v>
